--- a/translations/reports/az-az/SalesProcedureParticipantsReportTemplate.xlsx
+++ b/translations/reports/az-az/SalesProcedureParticipantsReportTemplate.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac6660d0d4d593d7/Документы/GitHub/AZLocalize1/translations/reports/az-az/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_B8BB05A444B034970DE65BFB2CB34A20B2A2B19B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB6FB1FE-2446-4B93-A2A7-BF5AD7CDEE83}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Обзор" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Детали" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Ümumi" sheetId="1" r:id="rId1"/>
+    <sheet name="Təfərrüatlar" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,281 +28,249 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
-    <t xml:space="preserve">Sorğunun iştirakçıları</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcureSaaS xidməti tərəfindən $.Now-da yaradılıb. Sənəddəki vaxt $.Tz vaxtıdır</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorğu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ProcedureName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorğunun kodu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sifarişçi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.CreatedCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorğunun statusu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.StateAndDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dərc olunub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.PublishDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Təklif qəbulunun son tarixi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.AcceptanceEndDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platforma olan sorğu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platformanın dəstəyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Məsul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ResponsibleAdmin.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Şərh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ResponsibleAdmin.Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sifarişi aldı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ParticipantsStatistics.Winner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Təklif göndərilib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ParticipantsStatistics.ProposalSubmitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Təklifin hazırlanması</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ParticipantsStatistics.ProposalDraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İlkin kvalifikasiya sənədləri göndərilib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ParticipantsStatistics.NdaSubmitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İlkin kvalifikasiya sənədlərinin hazırlanması</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ParticipantsStatistics.NdaDraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorğu ilə tanış olub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ParticipantsStatistics.ProcedureViewed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dəvət ilə tanış olub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ParticipantsStatistics.InvitationViewed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dəvət olub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ParticipantsStatistics.InvitationSent</t>
+    <t>Sorğunun iştirakçıları</t>
+  </si>
+  <si>
+    <t>ProcureSaaS xidməti tərəfindən $.Now-da yaradılıb. Sənəddəki vaxt $.Tz vaxtıdır</t>
+  </si>
+  <si>
+    <t>Sorğu</t>
+  </si>
+  <si>
+    <t>$.ProcedureName</t>
+  </si>
+  <si>
+    <t>Sorğunun kodu</t>
+  </si>
+  <si>
+    <t>$.Number</t>
+  </si>
+  <si>
+    <t>Sifarişçi</t>
+  </si>
+  <si>
+    <t>$.CreatedCompany</t>
+  </si>
+  <si>
+    <t>Sorğunun statusu</t>
+  </si>
+  <si>
+    <t>$.StateAndDate</t>
+  </si>
+  <si>
+    <t>Dərc olunub</t>
+  </si>
+  <si>
+    <t>$.PublishDate</t>
+  </si>
+  <si>
+    <t>Təklif qəbulunun son tarixi</t>
+  </si>
+  <si>
+    <t>$.AcceptanceEndDate</t>
+  </si>
+  <si>
+    <t>Platforma olan sorğu</t>
+  </si>
+  <si>
+    <t>$.Link</t>
+  </si>
+  <si>
+    <t>Platformanın dəstəyi</t>
+  </si>
+  <si>
+    <t>Məsul</t>
+  </si>
+  <si>
+    <t>$.ResponsibleAdmin.Name</t>
+  </si>
+  <si>
+    <t>Şərh</t>
+  </si>
+  <si>
+    <t>$.ResponsibleAdmin.Comment</t>
+  </si>
+  <si>
+    <t>Sifarişi aldı</t>
+  </si>
+  <si>
+    <t>$.ParticipantsStatistics.Winner</t>
+  </si>
+  <si>
+    <t>Təklif göndərilib</t>
+  </si>
+  <si>
+    <t>$.ParticipantsStatistics.ProposalSubmitted</t>
+  </si>
+  <si>
+    <t>Təklifin hazırlanması</t>
+  </si>
+  <si>
+    <t>$.ParticipantsStatistics.ProposalDraft</t>
+  </si>
+  <si>
+    <t>İlkin kvalifikasiya sənədləri göndərilib</t>
+  </si>
+  <si>
+    <t>$.ParticipantsStatistics.NdaSubmitted</t>
+  </si>
+  <si>
+    <t>İlkin kvalifikasiya sənədlərinin hazırlanması</t>
+  </si>
+  <si>
+    <t>$.ParticipantsStatistics.NdaDraft</t>
+  </si>
+  <si>
+    <t>Sorğu ilə tanış olub</t>
+  </si>
+  <si>
+    <t>$.ParticipantsStatistics.ProcedureViewed</t>
+  </si>
+  <si>
+    <t>Dəvət ilə tanış olub</t>
+  </si>
+  <si>
+    <t>$.ParticipantsStatistics.InvitationViewed</t>
+  </si>
+  <si>
+    <t>Dəvət olub</t>
+  </si>
+  <si>
+    <t>$.ParticipantsStatistics.InvitationSent</t>
   </si>
   <si>
     <t xml:space="preserve">İştirakdan imtina edib </t>
   </si>
   <si>
-    <t xml:space="preserve">$.ParticipantsStatistics.Refused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloklanılıb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ParticipantsStatistics.Blocked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İştirakçıları cəlb edən mənbələr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platforma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Sources.Bidzaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Sources.Organizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digər</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Sources.Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İştirakçılar haqqında ətraflı məlumat - "Ətraflı məlumat" vərəqində</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İştirakçı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status alınıb</t>
+    <t>$.ParticipantsStatistics.Refused</t>
+  </si>
+  <si>
+    <t>Bloklanılıb</t>
+  </si>
+  <si>
+    <t>$.ParticipantsStatistics.Blocked</t>
+  </si>
+  <si>
+    <t>İştirakçıları cəlb edən mənbələr</t>
+  </si>
+  <si>
+    <t>Platforma</t>
+  </si>
+  <si>
+    <t>$.Sources.Bidzaar</t>
+  </si>
+  <si>
+    <t>$.Sources.Organizer</t>
+  </si>
+  <si>
+    <t>Digər</t>
+  </si>
+  <si>
+    <t>$.Sources.Self</t>
+  </si>
+  <si>
+    <t>İştirakçılar haqqında ətraflı məlumat - "Ətraflı məlumat" vərəqində</t>
+  </si>
+  <si>
+    <t>İştirakçı</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Status alınıb</t>
   </si>
   <si>
     <t xml:space="preserve"> Cəlb edən mənbələr</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorğunun admin panelində iştirakçı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Participants[*].CompanyName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Participants[*].Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Participants[*].Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Participants[*].Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Participants[*].Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Participants[*].Link</t>
+    <t>Sorğunun admin panelində iştirakçı</t>
+  </si>
+  <si>
+    <t>$.Participants[*].CompanyName</t>
+  </si>
+  <si>
+    <t>$.Participants[*].Status</t>
+  </si>
+  <si>
+    <t>$.Participants[*].Date</t>
+  </si>
+  <si>
+    <t>$.Participants[*].Source</t>
+  </si>
+  <si>
+    <t>$.Participants[*].Comment</t>
+  </si>
+  <si>
+    <t>$.Participants[*].Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -316,21 +289,23 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -342,145 +317,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -539,46 +450,354 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="4.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="21.67"/>
+    <col min="1" max="1" width="36.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.08203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="1" customWidth="1"/>
+    <col min="15" max="17" width="21.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="23.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -599,7 +818,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -618,7 +837,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -641,7 +860,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -664,7 +883,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -687,7 +906,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -710,7 +929,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -733,7 +952,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -756,7 +975,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:17" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -779,17 +998,17 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:17" ht="15.5">
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
@@ -797,7 +1016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:17" ht="15.5">
       <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
@@ -805,17 +1024,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="16"/>
     </row>
-    <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:17" ht="15.5">
       <c r="A16" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="17"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -823,7 +1042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
@@ -831,7 +1050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
@@ -839,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
@@ -847,7 +1066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>29</v>
       </c>
@@ -855,7 +1074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
@@ -863,7 +1082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>33</v>
       </c>
@@ -871,7 +1090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
@@ -879,7 +1098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>37</v>
       </c>
@@ -887,7 +1106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>39</v>
       </c>
@@ -895,17 +1114,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" ht="15.5">
       <c r="A28" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="17"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>42</v>
       </c>
@@ -913,7 +1132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>6</v>
       </c>
@@ -921,7 +1140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="19" t="s">
         <v>45</v>
       </c>
@@ -929,104 +1148,90 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="20"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="B34" s="24"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A34:B35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="$.Link"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.6328125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="33.6640625" defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="50.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="30.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="52.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="28.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="21" width="33.66"/>
+    <col min="1" max="1" width="50.58203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="25" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.08203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="52.5" style="20" customWidth="1"/>
+    <col min="6" max="6" width="28.58203125" style="20" customWidth="1"/>
+    <col min="7" max="1024" width="33.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="15.5">
+      <c r="A1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:6" ht="15.5">
+      <c r="A2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>